--- a/fourty_days_breakthrough_with_dip_20251224.xlsx
+++ b/fourty_days_breakthrough_with_dip_20251224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,14 +446,14 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>support_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>support_price</t>
@@ -466,54 +466,64 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>hard_stop</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>target_profit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ideal_entry</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>canslim_score</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>quarterly_eps_growth</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>annual_eps_growth</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>revenue_growth</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>roe</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>shares_outstanding</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>inst_ownership</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>fcf_quality</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ideal_entry</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SII</t>
+          <t>KAR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,54 +531,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>101.2</v>
+      <c r="C2" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>100.07</v>
+        <v>30.55</v>
       </c>
       <c r="F2" t="n">
-        <v>86.59999999999999</v>
+        <v>72.7</v>
       </c>
       <c r="G2" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36.92</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30.31 - 30.46</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4</v>
-      </c>
       <c r="K2" t="n">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>25786258</v>
+        <v>1.08</v>
       </c>
       <c r="M2" t="n">
-        <v>0.57</v>
+        <v>0.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>99.29 - 100.19</t>
-        </is>
+        <v>0.09</v>
+      </c>
+      <c r="O2" t="n">
+        <v>106263187</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ERO</t>
+          <t>VCTR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -576,54 +592,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>27.37</v>
+      <c r="C3" t="n">
+        <v>64.67</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>26.83</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>88.40000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>62.42</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.11</v>
+        <v>77.59999999999999</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>63.77 - 64.02</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>0.42</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="L3" t="n">
-        <v>103890254</v>
+        <v>-0.1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>26.70 - 27.10</t>
-        </is>
+        <v>0.16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>64935459</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>RVLV</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -631,54 +653,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-12-16</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>122.36</v>
+      <c r="C4" t="n">
+        <v>29.81</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>121.36</v>
+        <v>29.7</v>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>28.09</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.44</v>
+        <v>35.77</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>29.12 - 29.51</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L4" t="n">
-        <v>35775123</v>
+        <v>0.92</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>120.30 - 121.14</t>
-        </is>
+        <v>0.12</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40415438</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BELFA</t>
+          <t>BELFB</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -686,54 +714,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>157.53</v>
+      <c r="C5" t="n">
+        <v>177.05</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>155.4</v>
+        <v>175.69</v>
       </c>
       <c r="F5" t="n">
-        <v>38.4</v>
+        <v>29.1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>165.93</v>
       </c>
       <c r="H5" t="n">
+        <v>212.46</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>172.60 - 175.28</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
         <v>1.75</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>1.73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2115263</v>
       </c>
       <c r="M5" t="n">
         <v>0.45</v>
       </c>
       <c r="N5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10545300</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q5" t="n">
         <v>-0.09</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>153.88 - 155.95</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HG</t>
+          <t>BELFA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -741,54 +775,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>28.46</v>
+      <c r="C6" t="n">
+        <v>157.53</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37</v>
+        <v>155.4</v>
       </c>
       <c r="F6" t="n">
-        <v>68.09999999999999</v>
+        <v>38.4</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>148.41</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.78</v>
+        <v>189.04</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>153.88 - 155.95</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>0.28</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>0.27</v>
+        <v>1.75</v>
       </c>
       <c r="L6" t="n">
-        <v>64537772</v>
+        <v>1.73</v>
       </c>
       <c r="M6" t="n">
-        <v>0.87</v>
+        <v>0.45</v>
       </c>
       <c r="N6" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>28.11 - 28.18</t>
-        </is>
+        <v>0.17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2115263</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TATT</t>
+          <t>KALU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -796,54 +836,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>116.64</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>43.8</v>
-      </c>
       <c r="E7" t="n">
-        <v>43.26</v>
+        <v>116.06</v>
       </c>
       <c r="F7" t="n">
-        <v>34.7</v>
+        <v>35.6</v>
       </c>
       <c r="G7" t="n">
+        <v>110.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>139.97</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>114.28 - 115.47</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.14</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.11</v>
+        <v>3.49</v>
       </c>
       <c r="L7" t="n">
-        <v>12950637</v>
+        <v>3.41</v>
       </c>
       <c r="M7" t="n">
-        <v>0.68</v>
+        <v>0.13</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>42.71 - 43.36</t>
-        </is>
+        <v>0.12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16206255</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ACEL</t>
+          <t>SII</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -851,54 +897,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-12-12</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>11.56</v>
+      <c r="C8" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>11.3</v>
+        <v>100.07</v>
       </c>
       <c r="F8" t="n">
-        <v>50.4</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>96.42</v>
       </c>
       <c r="H8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.67</v>
+        <v>121.44</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>99.29 - 100.19</t>
+        </is>
       </c>
       <c r="J8" t="n">
-        <v>0.09</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>83207946</v>
+        <v>0.04</v>
       </c>
       <c r="M8" t="n">
-        <v>0.74</v>
+        <v>0.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>11.39 - 11.44</t>
-        </is>
+        <v>0.14</v>
+      </c>
+      <c r="O8" t="n">
+        <v>25786258</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CNO</t>
+          <t>DXPE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -906,54 +958,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>43.57</v>
+      <c r="C9" t="n">
+        <v>115.49</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>43.55</v>
+        <v>115.01</v>
       </c>
       <c r="F9" t="n">
-        <v>37.4</v>
+        <v>38.4</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>109.33</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.7</v>
+        <v>138.59</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>113.03 - 114.34</t>
+        </is>
       </c>
       <c r="J9" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="L9" t="n">
-        <v>95353512</v>
+        <v>0.03</v>
       </c>
       <c r="M9" t="n">
-        <v>0.97</v>
+        <v>0.09</v>
       </c>
       <c r="N9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>43.15 - 43.13</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15679290</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VCTR</t>
+          <t>ACEL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -961,54 +1019,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-12-15</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>64.67</v>
+      <c r="C10" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>64.29000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10.5</v>
+        <v>50.4</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>11.14</v>
       </c>
       <c r="H10" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>11.39 - 11.44</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.18</v>
       </c>
-      <c r="I10" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L10" t="n">
-        <v>64935459</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>63.77 - 64.02</t>
-        </is>
+      <c r="O10" t="n">
+        <v>83207946</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FHI</t>
+          <t>CNO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1016,54 +1080,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>54.01</v>
+      <c r="C11" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>53.57</v>
+        <v>43.55</v>
       </c>
       <c r="F11" t="n">
-        <v>62.8</v>
+        <v>37.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>42.52</v>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.26</v>
+        <v>52.28</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>43.15 - 43.13</t>
+        </is>
       </c>
       <c r="J11" t="n">
-        <v>0.15</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0.33</v>
+        <v>1.48</v>
       </c>
       <c r="L11" t="n">
-        <v>77537867</v>
+        <v>1.7</v>
       </c>
       <c r="M11" t="n">
-        <v>0.91</v>
+        <v>0.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>53.35 - 53.47</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>95353512</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HCC</t>
+          <t>FHI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1071,54 +1141,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>89.2</v>
+      <c r="C12" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>87.43000000000001</v>
+        <v>53.57</v>
       </c>
       <c r="F12" t="n">
-        <v>82.59999999999999</v>
+        <v>62.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>52.36</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>-0.13</v>
+        <v>64.81</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>53.35 - 53.47</t>
+        </is>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="L12" t="n">
-        <v>52570156</v>
+        <v>0.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>0.15</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>87.15 - 88.31</t>
-        </is>
+        <v>0.33</v>
+      </c>
+      <c r="O12" t="n">
+        <v>77537867</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CNR</t>
+          <t>HCC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1126,54 +1202,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-11-07</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>89.33</v>
+      <c r="C13" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>89.3</v>
+        <v>87.43000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>70.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>84.06</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.67</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-0.8100000000000001</v>
+        <v>107.04</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>87.15 - 88.31</t>
+        </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8100000000000001</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="L13" t="n">
-        <v>51239470</v>
+        <v>-0.13</v>
       </c>
       <c r="M13" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>86.93 - 88.44</t>
-        </is>
+        <v>0.02</v>
+      </c>
+      <c r="O13" t="n">
+        <v>52570156</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GHM</t>
+          <t>LINC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1181,54 +1263,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>69.5</v>
-      </c>
       <c r="E14" t="n">
-        <v>64.79000000000001</v>
+        <v>24.27</v>
       </c>
       <c r="F14" t="n">
-        <v>86.7</v>
+        <v>31.5</v>
       </c>
       <c r="G14" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>23.90 - 24.13</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="L14" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10987954</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.76</v>
+        <v>0.24</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.09</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>67.52 - 68.80</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="O14" t="n">
+        <v>31623795</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DXPE</t>
+          <t>ORLA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1236,54 +1324,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>115.49</v>
-      </c>
       <c r="E15" t="n">
-        <v>115.01</v>
+        <v>14.39</v>
       </c>
       <c r="F15" t="n">
-        <v>38.4</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>13.59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.03</v>
+        <v>17.65</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>14.26 - 14.56</t>
+        </is>
       </c>
       <c r="J15" t="n">
-        <v>0.09</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2</v>
+        <v>1.33</v>
       </c>
       <c r="L15" t="n">
-        <v>15679290</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>339896220</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.71</v>
       </c>
-      <c r="N15" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>113.03 - 114.34</t>
-        </is>
+      <c r="Q15" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WLFC</t>
+          <t>ADEA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1291,54 +1385,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>140.54</v>
-      </c>
       <c r="E16" t="n">
-        <v>136.68</v>
+        <v>16.67</v>
       </c>
       <c r="F16" t="n">
-        <v>30.2</v>
+        <v>53.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>16.04</v>
       </c>
       <c r="H16" t="n">
+        <v>20.62</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>16.72 - 17.01</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.01</v>
       </c>
-      <c r="I16" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>0.19</v>
       </c>
-      <c r="L16" t="n">
-        <v>6814154</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-0.96</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>137.50 - 139.13</t>
-        </is>
+      <c r="O16" t="n">
+        <v>109510191</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NWPX</t>
+          <t>AZZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1346,54 +1446,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>64.59999999999999</v>
+      <c r="C17" t="n">
+        <v>110.73</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>64.15000000000001</v>
+        <v>109.75</v>
       </c>
       <c r="F17" t="n">
-        <v>19.8</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>106.64</v>
       </c>
       <c r="H17" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.35</v>
+        <v>132.88</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>109.09 - 109.62</t>
+        </is>
       </c>
       <c r="J17" t="n">
-        <v>0.16</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1</v>
+        <v>1.52</v>
       </c>
       <c r="L17" t="n">
-        <v>9609651</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>0.85</v>
+        <v>0.02</v>
       </c>
       <c r="N17" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>63.61 - 63.95</t>
-        </is>
+        <v>0.27</v>
+      </c>
+      <c r="O17" t="n">
+        <v>30057082</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UFPT</t>
+          <t>CARG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1401,54 +1507,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2025-11-25</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>232.67</v>
+      <c r="C18" t="n">
+        <v>39.03</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>229.74</v>
+        <v>38.92</v>
       </c>
       <c r="F18" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>37.46</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+        <v>46.84</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>38.40 - 38.64</t>
+        </is>
       </c>
       <c r="J18" t="n">
-        <v>0.06</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>0.18</v>
+        <v>0.99</v>
       </c>
       <c r="L18" t="n">
-        <v>7712444</v>
+        <v>1.14</v>
       </c>
       <c r="M18" t="n">
-        <v>1.15</v>
+        <v>0.03</v>
       </c>
       <c r="N18" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>227.62 - 230.34</t>
-        </is>
+        <v>0.35</v>
+      </c>
+      <c r="O18" t="n">
+        <v>81236954</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UNF</t>
+          <t>LOPE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1456,54 +1568,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>168.17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>199</v>
-      </c>
       <c r="E19" t="n">
-        <v>197.64</v>
+        <v>168</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>19.6</v>
       </c>
       <c r="G19" t="n">
+        <v>161.23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>165.39 - 166.49</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="I19" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>-0.04</v>
-      </c>
       <c r="K19" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="L19" t="n">
-        <v>14530548</v>
+        <v>-0.59</v>
       </c>
       <c r="M19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O19" t="n">
+        <v>27968476</v>
+      </c>
+      <c r="P19" t="n">
         <v>1.01</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>194.02 - 197.01</t>
-        </is>
+      <c r="Q19" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>XPEL</t>
+          <t>HG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1511,54 +1629,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>52.08</v>
+      <c r="C20" t="n">
+        <v>28.46</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>51</v>
+        <v>28.37</v>
       </c>
       <c r="F20" t="n">
-        <v>20.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>27.59</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.13</v>
-      </c>
-      <c r="I20" t="n">
-        <v>-0.13</v>
+        <v>34.15</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>28.11 - 28.18</t>
+        </is>
       </c>
       <c r="J20" t="n">
-        <v>0.11</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.19</v>
+        <v>0.74</v>
       </c>
       <c r="L20" t="n">
-        <v>27678601</v>
+        <v>0.78</v>
       </c>
       <c r="M20" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="N20" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O20" t="n">
+        <v>64537772</v>
+      </c>
+      <c r="P20" t="n">
         <v>0.87</v>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>51.17 - 51.56</t>
-        </is>
+      <c r="Q20" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CENX</t>
+          <t>PHIN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1566,54 +1690,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>61.11</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>38.97</v>
-      </c>
       <c r="E21" t="n">
-        <v>37.19</v>
+        <v>61.04</v>
       </c>
       <c r="F21" t="n">
-        <v>51.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>58.95</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-0.68</v>
+        <v>73.33</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>60.25 - 60.50</t>
+        </is>
       </c>
       <c r="J21" t="n">
-        <v>0.17</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.58</v>
       </c>
       <c r="L21" t="n">
-        <v>93341969</v>
+        <v>-0.53</v>
       </c>
       <c r="M21" t="n">
-        <v>0.63</v>
+        <v>0.08</v>
       </c>
       <c r="N21" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>37.98 - 38.58</t>
-        </is>
+        <v>0.05</v>
+      </c>
+      <c r="O21" t="n">
+        <v>38442674</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CGAU</t>
+          <t>REVG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1621,54 +1751,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>62.35</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>15.03</v>
-      </c>
       <c r="E22" t="n">
-        <v>14.98</v>
+        <v>62.14</v>
       </c>
       <c r="F22" t="n">
-        <v>88.09999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>59.73</v>
       </c>
       <c r="H22" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.91</v>
+        <v>74.81999999999999</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>61.30 - 61.73</t>
+        </is>
       </c>
       <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.22</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L22" t="n">
-        <v>201768421</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>14.71 - 14.88</t>
-        </is>
+      <c r="O22" t="n">
+        <v>48806145</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DAVE</t>
+          <t>ASTH</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1676,54 +1812,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-11-28</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>221.02</v>
+      <c r="C23" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E23" t="n">
-        <v>218.26</v>
+        <v>24.01</v>
       </c>
       <c r="F23" t="n">
-        <v>26.7</v>
+        <v>26.3</v>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>22.91</v>
       </c>
       <c r="H23" t="n">
-        <v>196.58</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.33</v>
+        <v>29.33</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>23.83 - 24.20</t>
+        </is>
       </c>
       <c r="J23" t="n">
-        <v>0.63</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.66</v>
+        <v>-0.98</v>
       </c>
       <c r="L23" t="n">
-        <v>12190000</v>
+        <v>-0.98</v>
       </c>
       <c r="M23" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>214.03 - 218.81</t>
-        </is>
+        <v>0.02</v>
+      </c>
+      <c r="O23" t="n">
+        <v>50155613</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>BBW</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1731,54 +1873,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>36.5</v>
+      <c r="C24" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>36.37</v>
+        <v>57.4</v>
       </c>
       <c r="F24" t="n">
-        <v>68.59999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>52.9</v>
       </c>
       <c r="H24" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.48</v>
+        <v>69.23999999999999</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>55.78 - 57.12</t>
+        </is>
       </c>
       <c r="J24" t="n">
-        <v>0.18</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="L24" t="n">
-        <v>49857111</v>
+        <v>-0.15</v>
       </c>
       <c r="M24" t="n">
-        <v>0.54</v>
+        <v>0.03</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>35.66 - 36.13</t>
-        </is>
+        <v>0.41</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12945819</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NESR</t>
+          <t>NOVT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1786,54 +1934,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>15.08</v>
+      <c r="C25" t="n">
+        <v>122.36</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>14.95</v>
+        <v>121.36</v>
       </c>
       <c r="F25" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>117.2</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="I25" t="n">
-        <v>-0.18</v>
+        <v>146.83</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>120.30 - 121.14</t>
+        </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.12</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.08</v>
+        <v>-0.44</v>
       </c>
       <c r="L25" t="n">
-        <v>100777759</v>
+        <v>-0.44</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>14.81 - 14.93</t>
-        </is>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>35775123</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZEUS</t>
+          <t>ERO</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1841,54 +1995,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>45.01</v>
-      </c>
       <c r="E26" t="n">
-        <v>44.32</v>
+        <v>26.83</v>
       </c>
       <c r="F26" t="n">
-        <v>29.6</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G26" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32.84</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>26.70 - 27.10</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-0.22</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.04</v>
-      </c>
       <c r="K26" t="n">
-        <v>0.02</v>
+        <v>-0.12</v>
       </c>
       <c r="L26" t="n">
-        <v>11197621</v>
+        <v>-0.11</v>
       </c>
       <c r="M26" t="n">
-        <v>0.86</v>
+        <v>0.42</v>
       </c>
       <c r="N26" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>44.00 - 44.56</t>
-        </is>
+        <v>0.17</v>
+      </c>
+      <c r="O26" t="n">
+        <v>103890254</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LINC</t>
+          <t>CNR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1896,54 +2056,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>24.37</v>
+      <c r="C27" t="n">
+        <v>89.33</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>24.27</v>
+        <v>89.3</v>
       </c>
       <c r="F27" t="n">
-        <v>31.5</v>
+        <v>70.8</v>
       </c>
       <c r="G27" t="n">
+        <v>83.33</v>
+      </c>
+      <c r="H27" t="n">
+        <v>107.2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>86.93 - 88.44</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
         <v>3</v>
       </c>
-      <c r="H27" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.24</v>
-      </c>
       <c r="K27" t="n">
-        <v>0.08</v>
+        <v>-0.67</v>
       </c>
       <c r="L27" t="n">
-        <v>31623795</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="M27" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>23.90 - 24.13</t>
-        </is>
+        <v>-0.02</v>
+      </c>
+      <c r="O27" t="n">
+        <v>51239470</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORLA</t>
+          <t>GHM</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1951,54 +2117,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>14.71</v>
-      </c>
       <c r="E28" t="n">
-        <v>14.39</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>87.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.33</v>
+        <v>83.40000000000001</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>67.52 - 68.80</t>
+        </is>
       </c>
       <c r="J28" t="n">
-        <v>1.77</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="L28" t="n">
-        <v>339896220</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>0.71</v>
+        <v>0.23</v>
       </c>
       <c r="N28" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>14.26 - 14.56</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="O28" t="n">
+        <v>10987954</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-1.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PHIN</t>
+          <t>ZEUS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2006,54 +2178,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>45.01</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>61.11</v>
-      </c>
       <c r="E29" t="n">
-        <v>61.04</v>
+        <v>44.32</v>
       </c>
       <c r="F29" t="n">
-        <v>69.09999999999999</v>
+        <v>29.6</v>
       </c>
       <c r="G29" t="n">
+        <v>42.49</v>
+      </c>
+      <c r="H29" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>44.00 - 44.56</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-0.53</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.08</v>
-      </c>
       <c r="K29" t="n">
-        <v>0.05</v>
+        <v>-0.21</v>
       </c>
       <c r="L29" t="n">
-        <v>38442674</v>
+        <v>-0.22</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>0.04</v>
       </c>
       <c r="N29" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>60.25 - 60.50</t>
-        </is>
+        <v>0.02</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11197621</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>REVG</t>
+          <t>UFPT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2061,54 +2239,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>62.35</v>
+      <c r="C30" t="n">
+        <v>232.67</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>62.14</v>
+        <v>229.74</v>
       </c>
       <c r="F30" t="n">
-        <v>84.40000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="G30" t="n">
+        <v>220.05</v>
+      </c>
+      <c r="H30" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>227.62 - 230.34</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.11</v>
-      </c>
       <c r="K30" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>48806145</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>0.06</v>
       </c>
       <c r="N30" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>61.30 - 61.73</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7712444</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AZZ</t>
+          <t>MLAB</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2116,54 +2300,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2025-12-11</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>110.73</v>
+      <c r="C31" t="n">
+        <v>81.23999999999999</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>109.75</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>65.40000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>76.55</v>
       </c>
       <c r="H31" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.5</v>
+        <v>97.48</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>79.36 - 80.42</t>
+        </is>
       </c>
       <c r="J31" t="n">
-        <v>0.02</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="L31" t="n">
-        <v>30057082</v>
+        <v>-0.29</v>
       </c>
       <c r="M31" t="n">
-        <v>0.96</v>
+        <v>0.05</v>
       </c>
       <c r="N31" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>109.09 - 109.62</t>
-        </is>
+        <v>-0.01</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5522299</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CARG</t>
+          <t>PLMR</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2171,54 +2361,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>137.72</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>39.03</v>
-      </c>
       <c r="E32" t="n">
-        <v>38.92</v>
+        <v>136.67</v>
       </c>
       <c r="F32" t="n">
-        <v>17.8</v>
+        <v>32</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>131.43</v>
       </c>
       <c r="H32" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.14</v>
+        <v>165.26</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>135.20 - 136.34</t>
+        </is>
       </c>
       <c r="J32" t="n">
-        <v>0.03</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L32" t="n">
-        <v>81236954</v>
+        <v>0.63</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>0.65</v>
       </c>
       <c r="N32" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>38.40 - 38.64</t>
-        </is>
+        <v>0.22</v>
+      </c>
+      <c r="O32" t="n">
+        <v>26501692</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KAR</t>
+          <t>IDR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2226,54 +2422,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>30.77</v>
-      </c>
       <c r="E33" t="n">
-        <v>30.55</v>
+        <v>45.88</v>
       </c>
       <c r="F33" t="n">
-        <v>72.7</v>
+        <v>94.7</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>41.77</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.08</v>
+        <v>56.16</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>44.79 - 46.33</t>
+        </is>
       </c>
       <c r="J33" t="n">
-        <v>0.08</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="L33" t="n">
-        <v>106263187</v>
+        <v>0.67</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>30.31 - 30.46</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15592374</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ASTH</t>
+          <t>WLFC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2281,54 +2483,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>140.54</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>24.44</v>
-      </c>
       <c r="E34" t="n">
-        <v>24.01</v>
+        <v>136.68</v>
       </c>
       <c r="F34" t="n">
-        <v>26.3</v>
+        <v>30.2</v>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>132.94</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-0.98</v>
+        <v>168.65</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>137.50 - 139.13</t>
+        </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L34" t="n">
-        <v>50155613</v>
+        <v>-0.04</v>
       </c>
       <c r="M34" t="n">
-        <v>0.55</v>
+        <v>0.26</v>
       </c>
       <c r="N34" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>23.83 - 24.20</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="O34" t="n">
+        <v>6814154</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BBW</t>
+          <t>NESR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2336,54 +2544,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2025-12-03</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>57.7</v>
+      <c r="C35" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>57.4</v>
+        <v>14.95</v>
       </c>
       <c r="F35" t="n">
-        <v>83.59999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>14.39</v>
       </c>
       <c r="H35" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>14.81 - 14.93</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="L35" t="n">
         <v>-0.18</v>
       </c>
-      <c r="I35" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12945819</v>
-      </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>-0.12</v>
       </c>
       <c r="N35" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>55.78 - 57.12</t>
-        </is>
+        <v>0.08</v>
+      </c>
+      <c r="O35" t="n">
+        <v>100777759</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOPE</t>
+          <t>UNF</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2391,54 +2605,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>199</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>168.17</v>
-      </c>
       <c r="E36" t="n">
-        <v>168</v>
+        <v>197.64</v>
       </c>
       <c r="F36" t="n">
-        <v>19.6</v>
+        <v>62</v>
       </c>
       <c r="G36" t="n">
+        <v>186.56</v>
+      </c>
+      <c r="H36" t="n">
+        <v>238.8</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>194.02 - 197.01</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
         <v>2</v>
       </c>
-      <c r="H36" t="n">
-        <v>-0.61</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-0.59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.1</v>
-      </c>
       <c r="K36" t="n">
-        <v>0.28</v>
+        <v>-0.08</v>
       </c>
       <c r="L36" t="n">
-        <v>27968476</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M36" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O36" t="n">
+        <v>14530548</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.01</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>165.39 - 166.49</t>
-        </is>
+      <c r="Q36" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IDR</t>
+          <t>XPEL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2446,54 +2666,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>52.08</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>46.8</v>
-      </c>
       <c r="E37" t="n">
-        <v>45.88</v>
+        <v>51</v>
       </c>
       <c r="F37" t="n">
-        <v>94.7</v>
+        <v>20.8</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>49.81</v>
       </c>
       <c r="H37" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.67</v>
+        <v>62.5</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>51.17 - 51.56</t>
+        </is>
       </c>
       <c r="J37" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>0.18</v>
+        <v>-0.13</v>
       </c>
       <c r="L37" t="n">
-        <v>15592374</v>
+        <v>-0.13</v>
       </c>
       <c r="M37" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>44.79 - 46.33</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="O37" t="n">
+        <v>27678601</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RVLV</t>
+          <t>CENX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2501,54 +2727,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>38.97</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>29.81</v>
-      </c>
       <c r="E38" t="n">
-        <v>29.7</v>
+        <v>37.19</v>
       </c>
       <c r="F38" t="n">
-        <v>79.59999999999999</v>
+        <v>51.3</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>36.49</v>
       </c>
       <c r="H38" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.92</v>
+        <v>46.76</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>37.98 - 38.58</t>
+        </is>
       </c>
       <c r="J38" t="n">
-        <v>0.04</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0.12</v>
+        <v>-0.68</v>
       </c>
       <c r="L38" t="n">
-        <v>40415438</v>
+        <v>-0.68</v>
       </c>
       <c r="M38" t="n">
-        <v>1.14</v>
+        <v>0.17</v>
       </c>
       <c r="N38" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>29.12 - 29.51</t>
-        </is>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>93341969</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MLAB</t>
+          <t>CGAU</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2556,54 +2788,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>81.23999999999999</v>
+      <c r="C39" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>81.04000000000001</v>
+        <v>14.98</v>
       </c>
       <c r="F39" t="n">
-        <v>9.6</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>14.24</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-0.29</v>
+        <v>18.04</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>14.71 - 14.88</t>
+        </is>
       </c>
       <c r="J39" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.01</v>
+        <v>9.15</v>
       </c>
       <c r="L39" t="n">
-        <v>5522299</v>
+        <v>9.91</v>
       </c>
       <c r="M39" t="n">
-        <v>0.93</v>
+        <v>0.22</v>
       </c>
       <c r="N39" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>79.36 - 80.42</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="O39" t="n">
+        <v>201768421</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLMR</t>
+          <t>DAVE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2611,54 +2849,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>137.72</v>
+      <c r="C40" t="n">
+        <v>221.02</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>136.67</v>
+        <v>218.26</v>
       </c>
       <c r="F40" t="n">
-        <v>32</v>
+        <v>26.7</v>
       </c>
       <c r="G40" t="n">
+        <v>203.56</v>
+      </c>
+      <c r="H40" t="n">
+        <v>265.22</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>214.03 - 218.81</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
         <v>5</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
+        <v>196.58</v>
+      </c>
+      <c r="L40" t="n">
+        <v>210.33</v>
+      </c>
+      <c r="M40" t="n">
         <v>0.63</v>
       </c>
-      <c r="J40" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L40" t="n">
-        <v>26501692</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.96</v>
-      </c>
       <c r="N40" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>135.20 - 136.34</t>
-        </is>
+        <v>0.66</v>
+      </c>
+      <c r="O40" t="n">
+        <v>12190000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CSTM</t>
+          <t>TATT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2666,54 +2910,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>19.17</v>
-      </c>
       <c r="E41" t="n">
-        <v>18.96</v>
+        <v>43.26</v>
       </c>
       <c r="F41" t="n">
-        <v>85.8</v>
+        <v>34.7</v>
       </c>
       <c r="G41" t="n">
+        <v>41.07</v>
+      </c>
+      <c r="H41" t="n">
+        <v>52.56</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>42.71 - 43.36</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
         <v>4</v>
       </c>
-      <c r="H41" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.2</v>
-      </c>
       <c r="K41" t="n">
-        <v>0.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>137801779</v>
+        <v>0.42</v>
       </c>
       <c r="M41" t="n">
-        <v>0.95</v>
+        <v>0.14</v>
       </c>
       <c r="N41" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>18.80 - 18.98</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="O41" t="n">
+        <v>12950637</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FELE</t>
+          <t>CSTM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2721,54 +2971,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>99.58</v>
-      </c>
       <c r="E42" t="n">
-        <v>98.08</v>
+        <v>18.96</v>
       </c>
       <c r="F42" t="n">
-        <v>12</v>
+        <v>85.8</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>18.24</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-0.68</v>
+        <v>23</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>18.80 - 18.98</t>
+        </is>
       </c>
       <c r="J42" t="n">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>0.11</v>
+        <v>11.57</v>
       </c>
       <c r="L42" t="n">
-        <v>44510381</v>
+        <v>11.89</v>
       </c>
       <c r="M42" t="n">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="N42" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>98.47 - 98.58</t>
-        </is>
+        <v>0.12</v>
+      </c>
+      <c r="O42" t="n">
+        <v>137801779</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>FELE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2776,54 +3032,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>99.58</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>10.18</v>
-      </c>
       <c r="E43" t="n">
-        <v>10.17</v>
+        <v>98.08</v>
       </c>
       <c r="F43" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>96.81</v>
       </c>
       <c r="H43" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.35</v>
+        <v>119.5</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>98.47 - 98.58</t>
+        </is>
       </c>
       <c r="J43" t="n">
-        <v>0.38</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0.18</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>306959986</v>
+        <v>-0.68</v>
       </c>
       <c r="M43" t="n">
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="N43" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>9.93 - 10.08</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="O43" t="n">
+        <v>44510381</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ADEA</t>
+          <t>FSM</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2831,54 +3093,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>2025-12-22</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>17.18</v>
-      </c>
       <c r="E44" t="n">
-        <v>16.67</v>
+        <v>10.17</v>
       </c>
       <c r="F44" t="n">
-        <v>53.6</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-0.53</v>
+        <v>12.22</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>9.93 - 10.08</t>
+        </is>
       </c>
       <c r="J44" t="n">
-        <v>0.01</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>0.19</v>
+        <v>1.45</v>
       </c>
       <c r="L44" t="n">
-        <v>109510191</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
-        <v>0.98</v>
+        <v>0.38</v>
       </c>
       <c r="N44" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>16.72 - 17.01</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="O44" t="n">
+        <v>306959986</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BELFB</t>
+          <t>NWPX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2886,54 +3154,60 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>177.05</v>
+      <c r="C45" t="n">
+        <v>64.59999999999999</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>175.69</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>29.1</v>
+        <v>19.8</v>
       </c>
       <c r="G45" t="n">
+        <v>62.11</v>
+      </c>
+      <c r="H45" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>63.61 - 63.95</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
         <v>5</v>
       </c>
-      <c r="H45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.45</v>
-      </c>
       <c r="K45" t="n">
-        <v>0.17</v>
+        <v>0.32</v>
       </c>
       <c r="L45" t="n">
-        <v>10545300</v>
+        <v>0.35</v>
       </c>
       <c r="M45" t="n">
-        <v>0.9</v>
+        <v>0.16</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>172.60 - 175.28</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>9609651</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KALU</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2941,48 +3215,54 @@
           <t>2025-12-23</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2025-12-22</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>116.64</v>
+      <c r="C46" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>116.06</v>
+        <v>36.37</v>
       </c>
       <c r="F46" t="n">
-        <v>35.6</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>4</v>
+        <v>34.39</v>
       </c>
       <c r="H46" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.41</v>
+        <v>43.8</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>35.66 - 36.13</t>
+        </is>
       </c>
       <c r="J46" t="n">
-        <v>0.13</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="L46" t="n">
-        <v>16206255</v>
+        <v>0.48</v>
       </c>
       <c r="M46" t="n">
-        <v>0.98</v>
+        <v>0.18</v>
       </c>
       <c r="N46" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>114.28 - 115.47</t>
-        </is>
+        <v>0.11</v>
+      </c>
+      <c r="O46" t="n">
+        <v>49857111</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
